--- a/doc1.xlsx
+++ b/doc1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164">
   <si>
     <t>序号</t>
   </si>
@@ -493,6 +493,21 @@
   </si>
   <si>
     <t>352478990</t>
+  </si>
+  <si>
+    <t>蔡晓</t>
+  </si>
+  <si>
+    <t>D-206</t>
+  </si>
+  <si>
+    <t>0721310880244</t>
+  </si>
+  <si>
+    <t>陈沫</t>
+  </si>
+  <si>
+    <t>0721310880245</t>
   </si>
 </sst>
 </file>
@@ -502,8 +517,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -537,8 +552,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,23 +581,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,25 +612,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,17 +650,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -642,36 +664,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -680,13 +672,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -703,19 +718,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,49 +856,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,109 +898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,44 +938,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +986,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1032,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,145 +1044,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1207,18 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1505,10 +1535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1521,1036 +1551,1082 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6">
         <v>13277092249</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>799615317</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
         <v>13797048269</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>1823295520</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A4" s="2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7">
         <v>13797067195</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
         <v>13419511553</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" ht="20.25" spans="1:7">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4">
         <v>13037111831</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>1046897823</v>
       </c>
     </row>
     <row r="7" ht="20.25" spans="1:8">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" ht="20.25" spans="1:8">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" ht="20.25" spans="1:8">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" ht="20.25" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="6">
         <v>15527608323</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>2565999308</v>
       </c>
     </row>
     <row r="11" ht="20.25" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="7">
         <v>18020026206</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" ht="20.25" spans="1:8">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7">
         <v>15527617443</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" ht="20.25" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>15519322717</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>1536540087</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:7">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>253714709</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="E15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="7">
         <v>15271942771</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" ht="20.25" spans="1:8">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7">
         <v>15271854566</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" ht="20.25" spans="1:8">
-      <c r="A17" s="2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" ht="20.25" spans="1:8">
-      <c r="A18" s="2">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="7">
         <v>18064286600</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" ht="20.25" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="7">
         <v>18108612027</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" ht="20.25" spans="1:8">
-      <c r="A20" s="2">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6">
         <v>15271915581</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>953713611</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" ht="20.25" spans="1:8">
-      <c r="A21" s="2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7">
         <v>15527353737</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" ht="20.25" spans="1:8">
-      <c r="A22" s="2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="4">
         <v>13207174353</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>2529587208</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" ht="20.25" spans="1:8">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="7">
         <v>15207125445</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" ht="20.25" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9">
         <v>15271861087</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" ht="20.25" spans="1:8">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="9">
         <v>13720118151</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" ht="20.25" spans="1:8">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="6" t="s">
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" ht="20.25" spans="1:8">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7">
         <v>18681792651</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28" ht="20.25" spans="1:8">
-      <c r="A28" s="2">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="7">
         <v>15059383216</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="1:8">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" ht="20.25" spans="1:8">
-      <c r="A30" s="2">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" ht="20.25" spans="1:9">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="6">
         <v>13797070262</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="4">
         <v>1070772112</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" ht="20.25" spans="1:8">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="6">
         <v>13026345627</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <v>2604822097</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33" ht="20.25" spans="1:8">
-      <c r="A33" s="2">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="E33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="7">
         <v>15171442879</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" ht="20.25" spans="1:8">
-      <c r="A34" s="2">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" ht="20.25" spans="1:8">
-      <c r="A35" s="2">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>15629039169</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="1:8">
-      <c r="A36" s="2">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="7">
         <v>18164029345</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37" ht="20.25" spans="1:8">
-      <c r="A37" s="2">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="7">
         <v>13628630927</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38" ht="20.25" spans="1:8">
-      <c r="A38" s="2">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="39" ht="20.25" spans="1:8">
-      <c r="A39" s="2">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="40" ht="20.25" spans="1:8">
-      <c r="A40" s="2">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="7">
         <v>13419510112</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="H40" s="4"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" ht="20.25" spans="1:8">
-      <c r="A41" s="2">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="7">
         <v>13163303977</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" ht="20.25" spans="1:8">
-      <c r="A42" s="2">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="20.25" spans="1:8">
+      <c r="A43" s="10">
+        <v>43</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10">
+        <v>1142651171</v>
+      </c>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" ht="20.25" spans="1:8">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="12">
+        <v>15071467113</v>
+      </c>
+      <c r="G44" s="10">
+        <v>415777318</v>
+      </c>
+      <c r="H44" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H42">
-    <sortCondition ref="A2:A42"/>
+  <sortState ref="A43:H44">
+    <sortCondition ref="D43:D44"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
